--- a/inputs/data/FISHBASE_PARAMS.xlsx
+++ b/inputs/data/FISHBASE_PARAMS.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">SpeciesScientific</t>
+  </si>
   <si>
     <t xml:space="preserve">Species</t>
   </si>
@@ -29,7 +32,7 @@
     <t xml:space="preserve">Number</t>
   </si>
   <si>
-    <t xml:space="preserve">ForkLenghMin</t>
+    <t xml:space="preserve">ForkLengthMin</t>
   </si>
   <si>
     <t xml:space="preserve">ForkLengthMax</t>
@@ -44,9 +47,15 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
+    <t xml:space="preserve">ORIGIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katsuwonus pelamis</t>
   </si>
   <si>
+    <t xml:space="preserve">Skipjack tuna</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKJ</t>
   </si>
   <si>
@@ -62,27 +71,75 @@
     <t xml:space="preserve">Claro, R.; García-Arteaga, J.P.</t>
   </si>
   <si>
+    <t xml:space="preserve">FISHBASE</t>
+  </si>
+  <si>
     <t xml:space="preserve">42</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
+    <t xml:space="preserve">Thunnus albacares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowfin tuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wise, J.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torres, F.S.B. Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunnus obesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigeye tuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western-Central Pacific Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griggs, L.H.; Richardson, K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamry, J.M.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsexed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frota, L.O.; Costa, P.A.S.; Braga, A.C.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mixed</t>
   </si>
   <si>
-    <t xml:space="preserve">Indian Ocean</t>
-  </si>
-  <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
     <t xml:space="preserve">Wild, A.; Hampton, J.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsexed</t>
-  </si>
-  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
@@ -101,15 +158,24 @@
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">Western-Central Pacific Ocean</t>
-  </si>
-  <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
   </si>
   <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte-Neto, P.J.; Lessa, R.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fagundes, L.; Arfelli, C.A.; Amorim, A.F.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
@@ -119,58 +185,10 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Thunnus albacares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wise, J.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torres, F.S.B. Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamry, J.M.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frota, L.O.; Costa, P.A.S.; Braga, A.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte-Neto, P.J.; Lessa, R.P.</t>
-  </si>
-  <si>
     <t xml:space="preserve">81</t>
   </si>
   <si>
     <t xml:space="preserve">Muhammad, N.; Barata, A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunnus obesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griggs, L.H.; Richardson, K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fagundes, L.; Arfelli, C.A.; Amorim, A.F.</t>
   </si>
 </sst>
 </file>
@@ -533,799 +551,961 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
         <v>664</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="n">
         <v>76</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.00000481</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.35</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
         <v>1612</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
         <v>60</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.00000878</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.22</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4"/>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
+      <c r="H4"/>
+      <c r="I4" t="n">
         <v>0.00000572</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3.34</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5"/>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="n">
+      <c r="H5"/>
+      <c r="I5" t="n">
         <v>0.00000679</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.28</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
         <v>367</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
         <v>57</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.0000112</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3.15</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="n">
-        <v>848</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0000113</v>
+        <v>172</v>
       </c>
       <c r="I7" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
+        <v>0.000052</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>520</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="n">
-        <v>73</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00000342</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
+        <v>0.0000735</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>924</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>71</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00000403</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>190</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9" t="n">
-        <v>3.413</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
+        <v>0.0000321</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="n">
-        <v>88</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.00000481</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>375</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
+        <v>0.0000192</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2554</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="n">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00000561</v>
+        <v>136.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.315</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
+        <v>0.0000147</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>644</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="n">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>848</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000577</v>
+        <v>62</v>
       </c>
       <c r="I12" t="n">
-        <v>3.353</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
+        <v>0.0000113</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="n">
-        <v>268</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>83</v>
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>520</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000852</v>
+        <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
+        <v>0.00000342</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="n">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="n">
+        <v>924</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00000961</v>
+        <v>71</v>
       </c>
       <c r="I14" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
+        <v>0.00000403</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1298</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0000113</v>
+        <v>88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+        <v>0.00000481</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="n">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="n">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2554</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000006776</v>
+        <v>64</v>
       </c>
       <c r="I16" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
+        <v>0.00000561</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="n">
-        <v>370</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>644</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" t="n">
-        <v>0.00000774</v>
+        <v>76</v>
       </c>
       <c r="I17" t="n">
-        <v>3.255</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
+        <v>0.00000577</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="n">
-        <v>459</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>268</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" t="n">
-        <v>0.0000086</v>
+        <v>83</v>
       </c>
       <c r="I18" t="n">
-        <v>3.229</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
+        <v>0.00000852</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.00000687</v>
+        <v>54</v>
       </c>
       <c r="I19" t="n">
-        <v>3.287</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
+        <v>0.00000961</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="n">
-        <v>172</v>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000052</v>
+        <v>60</v>
       </c>
       <c r="I20" t="n">
-        <v>2.798</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
+        <v>0.0000113</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.0000735</v>
+        <v>71</v>
       </c>
       <c r="I21" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J21" t="s">
-        <v>39</v>
+        <v>0.000006776</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="n">
-        <v>375</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>458</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.0000192</v>
+        <v>150</v>
       </c>
       <c r="I22" t="n">
-        <v>2.992</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
+        <v>0.0000278</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.8549</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="n">
-        <v>136.5</v>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0000147</v>
+        <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="J23" t="s">
-        <v>42</v>
+        <v>0.0000119</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="n">
-        <v>458</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="n">
-        <v>150</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.0000278</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>370</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
       <c r="I24" t="n">
-        <v>2.8549</v>
-      </c>
-      <c r="J24" t="s">
-        <v>44</v>
+        <v>0.00000774</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="n">
-        <v>170</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.000006</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>459</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="I25" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
+        <v>0.0000086</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="n">
-        <v>190</v>
-      </c>
-      <c r="F26"/>
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1030</v>
+      </c>
       <c r="G26"/>
-      <c r="H26" t="n">
-        <v>0.0000321</v>
-      </c>
+      <c r="H26"/>
       <c r="I26" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
+        <v>0.00000687</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.287</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="n">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="n">
-        <v>190</v>
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0000119</v>
+        <v>170</v>
       </c>
       <c r="I27" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
+        <v>0.000006</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
